--- a/Widmer_Robin/Cheatsheet_bootcamp.xlsx
+++ b/Widmer_Robin/Cheatsheet_bootcamp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\zurich_walks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\zurich_walks\Widmer_Robin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F401B53C-C39B-4777-A28E-2975C620B9A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0CE4B-CD77-4EC6-B61B-192026744C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="4110" windowWidth="18300" windowHeight="15405" xr2:uid="{14A17F68-C01D-4E05-8481-97A90BE55806}"/>
+    <workbookView xWindow="11595" yWindow="3975" windowWidth="18300" windowHeight="15405" xr2:uid="{14A17F68-C01D-4E05-8481-97A90BE55806}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="181">
   <si>
     <t>R Cheatsheet</t>
   </si>
@@ -904,13 +904,157 @@
   </si>
   <si>
     <t>Patrik Widmer &amp; Patrice Robin</t>
+  </si>
+  <si>
+    <t>Create a bibliography from the used non-standart packages</t>
+  </si>
+  <si>
+    <t>devtools &amp;
+usethis</t>
+  </si>
+  <si>
+    <r>
+      <t>bibliography: "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>source.bib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+nocite: '@*'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>used_packages &lt;- names(sessionInfo()$otherPkgs)
+knitr::write_bib(used_packages, file = '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>source.bib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <t>A bibliography of all the bib file. Regardless if used or not</t>
+  </si>
+  <si>
+    <t>output:
+  html_document:
+    toc: true
+    toc_depth: 3
+    number_sections: true</t>
+  </si>
+  <si>
+    <t>Table of content in a html document</t>
+  </si>
+  <si>
+    <t>rmarkdown</t>
+  </si>
+  <si>
+    <r>
+      <t>embed_vimeo("</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>end_part</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>suggest_embed("</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url/link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <t>embed vimeo video in a html document</t>
+  </si>
+  <si>
+    <t>gives the correct command to embed, based on the video link</t>
+  </si>
+  <si>
+    <t>vembedr</t>
+  </si>
+  <si>
+    <t>st_drop_geometry(df)</t>
+  </si>
+  <si>
+    <t>drop geometry element</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,6 +1130,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1049,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1131,6 +1283,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1455,27 +1613,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFAA708-C5DE-4474-A0C3-B1119C56AC72}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.42578125" customWidth="1"/>
     <col min="2" max="2" width="57" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1868,7 +2026,7 @@
       <c r="B64" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1879,7 +2037,7 @@
       <c r="B65" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="31"/>
+      <c r="C65" s="36"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -1888,10 +2046,10 @@
       <c r="B66" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="31"/>
+      <c r="C66" s="36"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="31"/>
+      <c r="C67" s="36"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -1982,7 +2140,7 @@
       <c r="A81" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="36" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1993,7 +2151,7 @@
       <c r="B82" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="31"/>
+      <c r="C82" s="36"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -2002,7 +2160,7 @@
       <c r="B83" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="31"/>
+      <c r="C83" s="36"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -2011,7 +2169,7 @@
       <c r="B84" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="31"/>
+      <c r="C84" s="36"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -2020,7 +2178,7 @@
       <c r="B85" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="31"/>
+      <c r="C85" s="36"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -2029,7 +2187,7 @@
       <c r="B86" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="31"/>
+      <c r="C86" s="36"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
@@ -2038,7 +2196,7 @@
       <c r="B87" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="31"/>
+      <c r="C87" s="36"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -2047,7 +2205,7 @@
       <c r="B88" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="31"/>
+      <c r="C88" s="36"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -2056,7 +2214,7 @@
       <c r="B89" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C89" s="31"/>
+      <c r="C89" s="36"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
@@ -2065,7 +2223,7 @@
       <c r="B90" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="31"/>
+      <c r="C90" s="36"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
@@ -2074,7 +2232,7 @@
       <c r="B91" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="31"/>
+      <c r="C91" s="36"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
@@ -2083,11 +2241,11 @@
       <c r="B92" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="31"/>
+      <c r="C92" s="36"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="C93" s="31"/>
+      <c r="C93" s="36"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -2096,11 +2254,11 @@
       <c r="B94" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="31"/>
+      <c r="C94" s="36"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="C95" s="31"/>
+      <c r="C95" s="36"/>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
@@ -2109,11 +2267,11 @@
       <c r="B96" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C96" s="31"/>
+      <c r="C96" s="36"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
-      <c r="C97" s="31"/>
+      <c r="C97" s="36"/>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
@@ -2122,7 +2280,7 @@
       <c r="B98" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C98" s="31"/>
+      <c r="C98" s="36"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
@@ -2142,7 +2300,7 @@
       <c r="B101" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="36" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2153,87 +2311,147 @@
       <c r="B102" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>100</v>
-      </c>
+      <c r="C102" s="36"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="10"/>
+      <c r="A103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" s="36"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
+      <c r="C104" s="10"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="34"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="B105" s="33"/>
+      <c r="C105" s="34"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B106" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C106" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="10"/>
-    </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="10"/>
+      <c r="A107" s="3"/>
+      <c r="C107" s="31"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="12"/>
+      <c r="A108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>91</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C109" s="36"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>92</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>93</v>
-      </c>
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="29"/>
+      <c r="C111" s="12"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B115" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C115" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="117" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B117" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C117" s="9" t="s">
         <v>137</v>
       </c>
     </row>
+    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C64:C67"/>
     <mergeCell ref="C81:C98"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C101:C103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
